--- a/Test protocol/System Test protocol_Braille DP2 v1.0.xlsx
+++ b/Test protocol/System Test protocol_Braille DP2 v1.0.xlsx
@@ -139,16 +139,10 @@
     <t>Software build and release notes:</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Software build + release notes:</t>
   </si>
   <si>
     <t>The purpose of the test protocol and test cases are to report and verify the end-to-end system level functionality vs. the requirements. Test results are tracked through Pass/Fail verdicts against Expected result with supporting Comments for failed test cases.</t>
-  </si>
-  <si>
-    <t>1.0</t>
   </si>
   <si>
     <t>&lt;link to PEF reference repository&gt;</t>
@@ -239,6 +233,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>http://dev.pef-format.org/dp2/v1.0/index.xhtml</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/system/releases/tag/v1.0.0</t>
   </si>
 </sst>
 </file>
@@ -432,9 +432,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -444,6 +441,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
@@ -738,7 +738,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +752,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
+      <c r="A2" s="39"/>
     </row>
     <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -760,8 +760,8 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>37</v>
+      <c r="A4" s="35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -770,7 +770,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -788,13 +788,13 @@
       <c r="A10" s="28"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>36</v>
+      <c r="A11" s="36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -819,7 +819,7 @@
       <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
     </row>
@@ -829,8 +829,8 @@
       </c>
     </row>
     <row r="21" spans="1:1" ht="144.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
-        <v>49</v>
+      <c r="A21" s="35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,8 +888,8 @@
       <c r="C3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>35</v>
+      <c r="D3" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="E3" s="22"/>
     </row>
@@ -901,8 +901,8 @@
       <c r="C4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>38</v>
+      <c r="D4" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="22"/>
     </row>
@@ -915,12 +915,12 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
@@ -970,10 +970,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -981,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9"/>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="9"/>
     </row>
@@ -1053,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="9"/>
     </row>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="9"/>
     </row>
@@ -1134,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9"/>
     </row>
@@ -1164,8 +1164,12 @@
       <c r="C35" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Test protocol/System Test protocol_Braille DP2 v1.0.xlsx
+++ b/Test protocol/System Test protocol_Braille DP2 v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Viro\Documents\GitHub\testing\Test protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Viro\Desktop\MTM\Test Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>https://github.com/snaekobbi/system/releases/tag/v1.0.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -443,6 +449,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -853,7 +862,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,10 +897,12 @@
       <c r="C3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -901,10 +912,12 @@
       <c r="C4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -1165,8 +1178,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
